--- a/web_src/externals/DeviceListTemplate.xlsx
+++ b/web_src/externals/DeviceListTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penggy\go\src\liveqing.com\liveqing\sipcms\opensource\web_src\externals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\go\src\liveqing.com\liveqing\sipcms\opensource\web_src\externals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383446EE-A478-436F-9B02-7B4278F6823B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B70D424-D3A4-49EC-85A9-5AB9E5AAA057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" tabRatio="341" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="341" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设备列表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">LiveGBS国标设备列表 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,10 @@
   </si>
   <si>
     <t>码流索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,33 +474,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.1015625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.62890625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.47265625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.3671875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="14.62890625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="31.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="14.625" style="2" customWidth="1"/>
     <col min="8" max="9" width="14" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.62890625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.47265625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="24.3671875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="25.47265625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="15.734375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="18.734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="24.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="25.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="15.75" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.75" style="2" customWidth="1"/>
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="17" max="23" width="15.734375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="17.578125" style="2" customWidth="1"/>
+    <col min="17" max="23" width="15.75" style="2" customWidth="1"/>
+    <col min="24" max="25" width="17.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -523,8 +527,9 @@
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -597,11 +602,11 @@
       <c r="X2" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="Y2" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:X1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
